--- a/data/trans_orig/Q70-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q70-Estudios-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.118596653820078</v>
+        <v>1.124670577572384</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.9243802824389357</v>
+        <v>0.9538361931457885</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.089730221581307</v>
+        <v>1.157975818761371</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>2.565452790250988</v>
+        <v>2.652335240455198</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4355669942364092</v>
+        <v>0.4609914868287258</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2801910791175618</v>
+        <v>0.3637547039390582</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.1754871901195688</v>
+        <v>0.1808736368138733</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.586156303297287</v>
+        <v>3.01006634439104</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.014694827119162</v>
+        <v>0.9774068346413652</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.8911716407054547</v>
+        <v>0.8861375200209058</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.022389369602454</v>
+        <v>1.007006444046064</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>3.754711326388857</v>
+        <v>3.786805192181829</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.45813879168217</v>
+        <v>4.336931524947406</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.422891389911043</v>
+        <v>4.336630200378172</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.213650103814319</v>
+        <v>5.699572682593534</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.49146450291303</v>
+        <v>17.01274501262276</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.424700627051657</v>
+        <v>1.417801197558552</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.059533243108415</v>
+        <v>5.156985581669148</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.400226111486986</v>
+        <v>3.190565994575187</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>19.22388332881731</v>
+        <v>21.98307150139085</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.152966059073079</v>
+        <v>3.055356759589969</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3.194784399632117</v>
+        <v>3.153631584180945</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3.965057969638773</v>
+        <v>3.819758129291153</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>12.93045402401928</v>
+        <v>13.53005244021175</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>2.459110682459039</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>6.724809843280355</v>
+        <v>6.724809843280357</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>2.555313512446304</v>
@@ -829,7 +829,7 @@
         <v>2.237444191900051</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>7.81692557293128</v>
+        <v>7.816925572931278</v>
       </c>
     </row>
     <row r="8">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.025341450723282</v>
+        <v>1.002771573254147</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8863744178282197</v>
+        <v>0.8822512200519393</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.449285459086316</v>
+        <v>1.51768605192206</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>5.237617491427249</v>
+        <v>5.191012693267803</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.592582586770939</v>
+        <v>1.527770157545655</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.355342433428329</v>
+        <v>1.412208007658724</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.127369497722113</v>
+        <v>1.093892702003666</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>7.576846734665778</v>
+        <v>7.45292081198238</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.350473709914793</v>
+        <v>1.365697174805292</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.305184253747233</v>
+        <v>1.308835782819571</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.482568978549853</v>
+        <v>1.571099333015559</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>6.543106880855277</v>
+        <v>6.508426404334225</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.479559720800578</v>
+        <v>2.459391282832199</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.67204107844717</v>
+        <v>2.673995010860703</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.388875166036867</v>
+        <v>4.548976426089707</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8.936819842639414</v>
+        <v>8.970794114943731</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>5.447000009499434</v>
+        <v>5.70115954307819</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>5.66967618639111</v>
+        <v>5.697381540444574</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>4.371698333244884</v>
+        <v>3.79992854839236</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>11.94157654455179</v>
+        <v>11.51610474187671</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>2.882027277171301</v>
+        <v>2.846330858454361</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.26611099344085</v>
+        <v>3.199364946996049</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>3.2985718253544</v>
+        <v>3.484806525544184</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>9.431493585146017</v>
+        <v>9.239431690840149</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.4656421240378673</v>
+        <v>0.4763841915060718</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.5454643159452629</v>
+        <v>0.5342105815994751</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4635203629093853</v>
+        <v>0.4747643417270135</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>3.300061536335198</v>
+        <v>3.399390528995955</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.474073244452286</v>
+        <v>0.4745258325604959</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.3687652375023045</v>
+        <v>0.3678920954626125</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.285265603043753</v>
+        <v>1.297326053108419</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>4.778358967709233</v>
+        <v>4.959413346651941</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.561489850795458</v>
+        <v>0.5497339587056832</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.6029123252534649</v>
+        <v>0.6170840720514338</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.015034249270803</v>
+        <v>1.074886204216456</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>4.602223613467571</v>
+        <v>4.738798265655786</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9773341739812434</v>
+        <v>0.9768625649330042</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>6.755589749104286</v>
+        <v>7.005763445605599</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.365844051402501</v>
+        <v>2.483918746263689</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>11.99705993132604</v>
+        <v>12.88103270104698</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.134059549932042</v>
+        <v>3.527917599805463</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.378400273696645</v>
+        <v>1.339980109601225</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>5.772505019007623</v>
+        <v>5.412420837935469</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.35237178822587</v>
+        <v>9.638149618424178</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.913805328133501</v>
+        <v>1.784918936780449</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4.706313371757727</v>
+        <v>4.835736383134637</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>3.177690782752423</v>
+        <v>3.090122038351998</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>9.474617870302813</v>
+        <v>9.422759178419666</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>2.058008198246081</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>8.405370842984162</v>
+        <v>8.405370842984164</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>1.586834695897134</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.039182866367314</v>
+        <v>1.073495766947301</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.061722944128067</v>
+        <v>1.11914320863175</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.412282733817839</v>
+        <v>1.469075295256141</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>5.048788050418514</v>
+        <v>4.959952432140638</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.264242437486997</v>
+        <v>1.253148006605261</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.167335999868155</v>
+        <v>1.21810267933728</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.374060979179856</v>
+        <v>1.370431911220375</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>7.095382123304891</v>
+        <v>7.007055086812663</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.233963692765018</v>
+        <v>1.251356146672426</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.292905869940808</v>
+        <v>1.3073127706874</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.554160860283761</v>
+        <v>1.545878196088016</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>6.315843886792594</v>
+        <v>6.309967009108541</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.060191545927548</v>
+        <v>2.07446067338514</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.761490566849735</v>
+        <v>2.783861910977424</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.440708466835892</v>
+        <v>3.391205376484953</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8.288206684098171</v>
+        <v>8.21047967079137</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>3.578348190448347</v>
+        <v>3.602105073217145</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>3.684889792439229</v>
+        <v>3.88502348970029</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>3.478755406002433</v>
+        <v>3.337008091940137</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>10.0193735505571</v>
+        <v>10.27268731444499</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>2.210487519790578</v>
+        <v>2.287788719087807</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.632940205039682</v>
+        <v>2.649326451783533</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.959510580781146</v>
+        <v>2.942446181128718</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>8.561888890850936</v>
+        <v>8.556368208163253</v>
       </c>
     </row>
     <row r="16">
